--- a/dataset/数据.xlsx
+++ b/dataset/数据.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSBR\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5456FB1D-E44C-4E25-BBEA-6D69821AF4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DC4BF-BCE4-407B-8C05-06F77E46D14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
-  <si>
-    <t>SSBR 应用</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+  <si>
+    <t>样本ID</t>
+  </si>
+  <si>
+    <t>应用场景</t>
   </si>
   <si>
     <t>官能化试剂名称</t>
@@ -42,9 +40,48 @@
     <t>官能化程度（基于 SSBR 接枝百分比）</t>
   </si>
   <si>
+    <t>核磁谱图</t>
+  </si>
+  <si>
+    <t>微相分离图片表征</t>
+  </si>
+  <si>
+    <t>应力 - 应变曲线</t>
+  </si>
+  <si>
+    <t>DSC 谱图</t>
+  </si>
+  <si>
     <t>引文</t>
   </si>
   <si>
+    <t>100%定伸应力(MPa)</t>
+  </si>
+  <si>
+    <t>200%定伸应力(MPa)</t>
+  </si>
+  <si>
+    <t>300%定伸应力(MPa)</t>
+  </si>
+  <si>
+    <t>拉伸强度(MPa)</t>
+  </si>
+  <si>
+    <t>断裂伸长率(%)</t>
+  </si>
+  <si>
+    <t>力学数据来源</t>
+  </si>
+  <si>
+    <t>Tg(℃)</t>
+  </si>
+  <si>
+    <t>热学数据来源</t>
+  </si>
+  <si>
+    <t>SSBR-001</t>
+  </si>
+  <si>
     <t>绿色轮胎胎面胶</t>
   </si>
   <si>
@@ -57,21 +94,30 @@
     <t>文献 Fig.1 (A/B/C) 基础 SSBR 核磁谱图</t>
   </si>
   <si>
+    <t>文献 Fig.5 (A) 空白复合材料 TEM 微相分离图</t>
+  </si>
+  <si>
     <t>文献 Fig.8 (A) 空白复合材料应力 - 应变曲线</t>
   </si>
   <si>
     <t>文献 Fig.2 基础 SSBR 生胶 DSC 谱图</t>
   </si>
   <si>
+    <t>Gao W ,Lu J ,Song W , et al.Interfacial interaction modes construction of various functional SSBR-silica towards high filler dispersion and excellent composites performances[J].RSC Advances,2019,9(33):18888-18897.</t>
+  </si>
+  <si>
+    <t>10.1039_c9ra02783a_Gao_2019</t>
+  </si>
+  <si>
+    <t>SSBR-002</t>
+  </si>
+  <si>
     <t>3 - 巯基丙醇（MPL）</t>
   </si>
   <si>
     <t>SCCCO</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>文献 Fig.1 (A) SSBR-g-MPL 核磁谱图</t>
   </si>
   <si>
@@ -84,6 +130,9 @@
     <t>文献 Fig.2 SSBR-g-MPL 生胶 DSC 谱图</t>
   </si>
   <si>
+    <t>SSBR-003</t>
+  </si>
+  <si>
     <t>11 - 巯基十一烷酸（MUA）</t>
   </si>
   <si>
@@ -105,15 +154,12 @@
     <t>文献 Fig.2 SSBR-g-MUA 生胶 DSC 谱图</t>
   </si>
   <si>
+    <t>SSBR-004</t>
+  </si>
+  <si>
     <t>3 - 巯基丙基三乙氧基硅烷（MPTES）</t>
   </si>
   <si>
-    <t>CCOSi(OCC)OCC</t>
-  </si>
-  <si>
-    <t>Si(OCC)OCC</t>
-  </si>
-  <si>
     <t>文献 Fig.1 (C) SSBR-g-MPTES 核磁谱图</t>
   </si>
   <si>
@@ -126,84 +172,100 @@
     <t>文献 Fig.2 SSBR-g-MPTES 生胶 DSC 谱图</t>
   </si>
   <si>
-    <t>文献 Fig.5 (A) 空白复合材料 TEM 微相分离图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核磁谱图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微相分离图片表征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应力 - 应变曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSC 谱图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DOI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1039_c9ra02783a_Gao_2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gao W ,Lu J ,Song W , et al.Interfacial interaction modes construction of various functional SSBR-silica towards high filler dispersion and excellent composites performances[J].RSC Advances,2019,9(33):18888-18897.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1039_c9ra02783a_Gao_2019_SI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOI_SI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI Table S5</t>
+  </si>
+  <si>
+    <t>SI Table S6</t>
+  </si>
+  <si>
+    <t>核心官能团名称</t>
+  </si>
+  <si>
+    <t>核心官能团化学式</t>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>羟基</t>
+  </si>
+  <si>
+    <t>-OH</t>
+  </si>
+  <si>
+    <t>羧基</t>
+  </si>
+  <si>
+    <t>-COOH</t>
+  </si>
+  <si>
+    <t>SCCC[Si](OCC)(OCC)OCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Si](OCC)(OCC)OCC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三乙氧基硅烷基</t>
+  </si>
+  <si>
+    <t>-Si(OC2H5)3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="177" formatCode="#,##0%"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +276,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -226,30 +295,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -296,20 +373,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -339,12 +416,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -383,346 +460,554 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="194.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="36.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="194.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
+    <col min="16" max="23" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2">
+        <v>1.5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>452</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2">
+        <v>-9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <v>4.2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>14.2</v>
+      </c>
+      <c r="T3">
+        <v>200</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3">
+        <v>-0.9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4">
+        <v>6.3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>23.3</v>
+      </c>
+      <c r="S4">
+        <v>26</v>
+      </c>
+      <c r="T4">
+        <v>340</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4">
+        <v>-2.1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="5" spans="1:23" ht="18.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5">
+        <v>11.9</v>
+      </c>
+      <c r="T5">
+        <v>105</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>